--- a/sparkle/delivery/calculation.xlsx
+++ b/sparkle/delivery/calculation.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20346"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A676D2-4F9F-419A-B05D-A62876BFFACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>2k 以下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,14 +147,235 @@
   </si>
   <si>
     <t>a=13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自《新时代+新青年：2018年外卖骑手群体研究报告》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2k以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自《城市新青年：2018外卖骑手就业报告》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效样本：11.8万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效样本：3.8万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设收入为5-6k的骑手占比为a，对两个数据进行整合，可以得到：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众包 z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解方程，可得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设自营骑手占比为x，代理加盟骑手占比为y，众包骑手占比为z，通过对2-4k, 4-6k, 6-8k 三收入区间的分析，联立以下方程，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据带回2k以下，8-10k 两区间进行验证，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于元数据精确到1%，总体来说，数据与实际的误差在可接受范围内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营 6.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理&amp;加盟 48.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众包 45.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，收入的中位数也落在2-4k的区间内，约为3818元。中位数和平均数较为接近，验证了收入分布比较正态，没有长尾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则可计算出，外卖骑手总体的平均工资为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营骑手，代理&amp;加盟骑手和众包骑手的平均收入分别为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步分析，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营骑手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理&amp;加盟骑手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众包骑手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众包骑手提供了总运力的36.8%，也使美团“正规”骑手的合计运力增加了58.2%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理&amp;加盟 y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理&amp;加盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 假设三种骑手的每单平均收入相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则收入的比例就是完成订单的比例，就是运力的比例。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设采样日期相近，样本群体无明显变化；样本分布均匀，均能真实反映实际情况，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以下是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>估算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的骑手比例和收入区间表格：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假设收入区间为2k以下的群体平均收入为1k,2-4k的平均收入为3k，……，10k以上的群体平均收入为11k，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实际上，众包骑手的收入应小于正规骑手，否则正规骑手会退出以众包身份加入。如此看来，众包骑手贡献的运力应该占比更高。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运力占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +390,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,10 +408,90 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -188,11 +500,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -210,8 +602,1031 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2147191" cy="763158"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F4C41-A31A-4486-AA6C-81F0BD206634}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="892175" y="4318000"/>
+              <a:ext cx="2147191" cy="763158"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="{"/>
+                        <m:endChr m:val=""/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+39∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+31∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=33</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>33∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+42∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+18∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=18+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>56∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+11∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+8∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=25−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F4C41-A31A-4486-AA6C-81F0BD206634}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="892175" y="4318000"/>
+              <a:ext cx="2147191" cy="763158"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>{</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>█(𝑥+𝑦+𝑧=1@2∗𝑥+39∗𝑦+31∗𝑧=33@33∗𝑥+42∗𝑦+18∗𝑧=18+𝑎@56∗𝑥+11∗𝑦+8∗𝑧=25−𝑎)┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2261773" cy="377604"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD150AE9-48E0-46E1-BA94-5332E06FAA3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="815975" y="5365750"/>
+              <a:ext cx="2261773" cy="377604"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="{"/>
+                        <m:endChr m:val=""/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>6.4% , </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=48.1% , </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=45.5%,  </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>  </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=12.5%</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD150AE9-48E0-46E1-BA94-5332E06FAA3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="815975" y="5365750"/>
+              <a:ext cx="2261773" cy="377604"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>{</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>█(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>6.4% , 𝑦=48.1% , 𝑧=45.5%,  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  @</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=12.5%)┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3035831" cy="439608"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5030ECB9-3609-444D-BCD2-4205956082C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="898525" y="6299200"/>
+              <a:ext cx="3035831" cy="439608"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="{"/>
+                        <m:endChr m:val=""/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>0∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+6∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+39∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=20.63% (</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>元数据为</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t> 20%)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>8∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+2∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+3∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=2.84% (</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>元数据为</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t> 3%)</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5030ECB9-3609-444D-BCD2-4205956082C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="898525" y="6299200"/>
+              <a:ext cx="3035831" cy="439608"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>{█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0∗𝑥+6∗𝑦+39∗𝑧=20.63% (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>元数据为</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 20%)@8∗𝑥+2∗𝑦+3∗𝑧=2.84% (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>元数据为</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 3%))┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6403996" cy="173958"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940E17C7-49E7-4EB1-B0BB-9BDC85491F64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="835025" y="9163050"/>
+              <a:ext cx="6403996" cy="173958"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑛𝑐𝑜𝑚𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=1000∗0.2+3000∗0.33+5000∗0.305+7000∗0.125+9000∗0.03+11000∗0.01=3970</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940E17C7-49E7-4EB1-B0BB-9BDC85491F64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="835025" y="9163050"/>
+              <a:ext cx="6403996" cy="173958"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖𝑛𝑐𝑜𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=1000∗0.2+3000∗0.33+5000∗0.305+7000∗0.125+9000∗0.03+11000∗0.01=3970</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,6 +1701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -321,6 +1753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,17 +1945,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -853,4 +2302,657 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92EDD2-E517-4C09-A79D-885864DFB065}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" style="6"/>
+    <col min="2" max="2" width="11.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="6"/>
+    <col min="4" max="4" width="15.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="11.6328125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.31</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="F44" s="29">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E45" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="F45" s="29">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="30">
+        <v>0</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="13">
+        <v>6460</v>
+      </c>
+      <c r="D57" s="13">
+        <v>4280</v>
+      </c>
+      <c r="E57" s="13">
+        <v>3160</v>
+      </c>
+      <c r="F57" s="14">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="15"/>
+      <c r="C63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="37">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F64" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="17">
+        <f>6460*0.064</f>
+        <v>413.44</v>
+      </c>
+      <c r="D65" s="17">
+        <f>4280*0.481</f>
+        <v>2058.6799999999998</v>
+      </c>
+      <c r="E65" s="17">
+        <f>3160*0.455</f>
+        <v>1437.8</v>
+      </c>
+      <c r="F65" s="18">
+        <f>SUM(C65:E65)</f>
+        <v>3909.92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="20">
+        <f>C65/F65</f>
+        <v>0.10574129393951794</v>
+      </c>
+      <c r="D66" s="20">
+        <f>D65/F65</f>
+        <v>0.52652739697998929</v>
+      </c>
+      <c r="E66" s="20">
+        <f>E65/F65</f>
+        <v>0.36773130908049267</v>
+      </c>
+      <c r="F66" s="21">
+        <f>SUM(C66:E66)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/sparkle/delivery/calculation.xlsx
+++ b/sparkle/delivery/calculation.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20346"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A676D2-4F9F-419A-B05D-A62876BFFACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -275,6 +274,67 @@
   </si>
   <si>
     <t>代理&amp;加盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设采样日期相近，样本群体无明显变化；样本分布均匀，均能真实反映实际情况，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运力占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实际上，众包骑手的收入应小于正规骑手，否则正规骑手会退出以众包身份加入。如此看来，众包骑手贡献的运力应该占比更高。
+我认为，众包骑手提供的运力占比应超过40%。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以下是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>估算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的骑手比例和收入区间表格：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设收入区间为2k以下的群体平均收入为1k,2-4k的平均收入为3k，……，10k以上的群体平均收入为11k，</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,10 +346,9 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 假设三种骑手的每单平均收入相同</t>
     </r>
@@ -297,85 +356,23 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>，则收入的比例就是完成订单的比例，就是运力的比例。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设采样日期相近，样本群体无明显变化；样本分布均匀，均能真实反映实际情况，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>以下是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>估算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的骑手比例和收入区间表格：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>假设收入区间为2k以下的群体平均收入为1k,2-4k的平均收入为3k，……，10k以上的群体平均收入为11k，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（实际上，众包骑手的收入应小于正规骑手，否则正规骑手会退出以众包身份加入。如此看来，众包骑手贡献的运力应该占比更高。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运力占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +388,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,85 +508,85 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,14 +615,14 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2147191" cy="763158"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F4C41-A31A-4486-AA6C-81F0BD206634}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{175F4C41-A31A-4486-AA6C-81F0BD206634}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -874,7 +877,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -945,14 +948,14 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2261773" cy="377604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD150AE9-48E0-46E1-BA94-5332E06FAA3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD150AE9-48E0-46E1-BA94-5332E06FAA3B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -988,6 +991,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1088,7 +1092,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -1182,14 +1186,14 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3035831" cy="439608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5030ECB9-3609-444D-BCD2-4205956082C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5030ECB9-3609-444D-BCD2-4205956082C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,6 +1229,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1373,7 +1378,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -1467,14 +1472,14 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6403996" cy="173958"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940E17C7-49E7-4EB1-B0BB-9BDC85491F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{940E17C7-49E7-4EB1-B0BB-9BDC85491F64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1510,6 +1515,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1548,7 +1554,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -1626,7 +1632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1701,23 +1707,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1753,23 +1742,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1945,17 +1917,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -2305,651 +2277,663 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92EDD2-E517-4C09-A79D-885864DFB065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J69"/>
+  <dimension ref="B1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B69" sqref="B2:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="6"/>
-    <col min="2" max="2" width="11.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="6"/>
-    <col min="4" max="4" width="15.6328125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="11.6328125" style="6"/>
+    <col min="1" max="1" width="11.6640625" style="4"/>
+    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="11.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="G3" s="26" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="14">
         <v>0.06</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="15">
         <v>0.39</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="14">
         <v>0.2</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="14">
         <v>0.02</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="14">
         <v>0.39</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="15">
         <v>0.31</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="14">
         <v>0.15</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="14">
         <v>0.33</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="14">
         <v>0.42</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="15">
         <v>0.18</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="14">
         <v>0.18</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="14">
         <v>0.11</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="15">
         <v>0.08</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="14">
         <v>0.18</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="14">
         <v>0.08</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="14">
         <v>0.02</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="15">
         <v>0.03</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="14">
         <v>0.25</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <v>0.01</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>0.01</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="14">
         <v>0.03</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="19" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="18">
         <v>0.01</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
-        <v>66</v>
+      <c r="B13" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="14">
         <v>0.06</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="14">
         <v>0.39</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="14">
         <v>0.02</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="14">
         <v>0.39</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="14">
         <v>0.31</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="15">
         <v>0.33</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="14">
         <v>0.33</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="14">
         <v>0.42</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="14">
         <v>0.18</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="14">
         <v>0.11</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="14">
         <v>0.08</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="14">
         <v>0.08</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="14">
         <v>0.02</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="14">
         <v>0.03</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="18">
         <v>0.01</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="18">
         <v>0.01</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F47" s="19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="31"/>
+      <c r="C56" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="33">
+        <v>6460</v>
+      </c>
+      <c r="D57" s="33">
+        <v>4280</v>
+      </c>
+      <c r="E57" s="33">
+        <v>3160</v>
+      </c>
+      <c r="F57" s="34">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="27">
-        <v>0</v>
-      </c>
-      <c r="D42" s="27">
-        <v>0.06</v>
-      </c>
-      <c r="E42" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="F42" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="D43" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="E43" s="27">
-        <v>0.31</v>
-      </c>
-      <c r="F43" s="28">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="D44" s="27">
-        <v>0.42</v>
-      </c>
-      <c r="E44" s="27">
-        <v>0.18</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="27">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D45" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="E45" s="27">
-        <v>0.08</v>
-      </c>
-      <c r="F45" s="29">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="27">
-        <v>0.08</v>
-      </c>
-      <c r="D46" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="E46" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="F46" s="28">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="D47" s="30">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="F47" s="21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="13">
-        <v>6460</v>
-      </c>
-      <c r="D57" s="13">
-        <v>4280</v>
-      </c>
-      <c r="E57" s="13">
-        <v>3160</v>
-      </c>
-      <c r="F57" s="14">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="37">
+      <c r="C64" s="35">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="35">
         <v>0.48099999999999998</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="35">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="12">
         <f>6460*0.064</f>
         <v>413.44</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="12">
         <f>4280*0.481</f>
         <v>2058.6799999999998</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="12">
         <f>3160*0.455</f>
         <v>1437.8</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="13">
         <f>SUM(C65:E65)</f>
         <v>3909.92</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="20">
+    <row r="66" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="36">
         <f>C65/F65</f>
         <v>0.10574129393951794</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="36">
         <f>D65/F65</f>
         <v>0.52652739697998929</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="36">
         <f>E65/F65</f>
         <v>0.36773130908049267</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="19">
         <f>SUM(C66:E66)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="36" t="s">
-        <v>69</v>
-      </c>
+    <row r="69" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B69:K69"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>

--- a/sparkle/delivery/calculation.xlsx
+++ b/sparkle/delivery/calculation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20346"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A676D2-4F9F-419A-B05D-A62876BFFACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C38EE6-7D95-4D3D-A85B-817E3D4837A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,15 +356,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（实际上，众包骑手的收入应小于正规骑手，否则正规骑手会退出以众包身份加入。如此看来，众包骑手贡献的运力应该占比更高。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运力占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人数占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实际上，众包骑手的收入应小于正规骑手，否则正规骑手会退出以众包身份加入。如此看来，众包骑手贡献的运力应比36.8%更高。）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,8 +612,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2147191" cy="763158"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -874,7 +874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -945,8 +945,8 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2261773" cy="377604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -988,6 +988,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1088,7 +1089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -1182,8 +1183,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3035831" cy="439608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -1225,6 +1226,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1373,7 +1375,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -1467,8 +1469,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6403996" cy="173958"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -1510,6 +1512,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1548,7 +1551,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -2312,7 +2315,7 @@
   <dimension ref="B1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="K69" sqref="B2:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="37">
         <v>6.4000000000000001E-2</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="66" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="20">
         <f>C65/F65</f>
@@ -2946,13 +2949,13 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>